--- a/mallar/import/Jälla 2022/extr2_jälla_2022.xlsx
+++ b/mallar/import/Jälla 2022/extr2_jälla_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\Jälla 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2456AD-7EBD-4872-9CC0-A7F8EE91749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AFD5BC-810B-409A-8B1B-F11613D20581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="483" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="483" activeTab="1" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="voltigörer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -987,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2745,13 +2746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D28CB-C6E2-4B8D-9091-1FD20615DBE1}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="29.265625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
